--- a/Selenium_Project/instagram_Done.xlsx
+++ b/Selenium_Project/instagram_Done.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Web_Automation\Selenium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01554F0-D251-4817-9055-C814D626A949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3BDD3-4DBA-4F73-B116-A68AB15396E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DCFB12E3-F384-4AD4-97AB-7DAACF2E6FFC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="1326">
   <si>
     <t>Data</t>
   </si>
@@ -3661,6 +3661,348 @@
   </si>
   <si>
     <t>adventuresofmissgeorgia</t>
+  </si>
+  <si>
+    <t>athos_amstaffy</t>
+  </si>
+  <si>
+    <t>lunarnightmare629</t>
+  </si>
+  <si>
+    <t>pandatheamericanakita</t>
+  </si>
+  <si>
+    <t>rize_meow222</t>
+  </si>
+  <si>
+    <t>odie_the_terrier_</t>
+  </si>
+  <si>
+    <t>knowles2308sarah73</t>
+  </si>
+  <si>
+    <t>littlemissnalabean</t>
+  </si>
+  <si>
+    <t>pibtheperrrfect</t>
+  </si>
+  <si>
+    <t>charliegarrigan</t>
+  </si>
+  <si>
+    <t>theoghosty</t>
+  </si>
+  <si>
+    <t>debra_balloch</t>
+  </si>
+  <si>
+    <t>fijithepug_</t>
+  </si>
+  <si>
+    <t>reginald_firstofhisname</t>
+  </si>
+  <si>
+    <t>lolasaltthefrenchie</t>
+  </si>
+  <si>
+    <t>grandma_c_w</t>
+  </si>
+  <si>
+    <t>ginger_corgi_ma_non_corgi</t>
+  </si>
+  <si>
+    <t>newton_the_boykin</t>
+  </si>
+  <si>
+    <t>grizabella_and_tinkerbell</t>
+  </si>
+  <si>
+    <t>ogatobarth</t>
+  </si>
+  <si>
+    <t>hawaiian_coco_</t>
+  </si>
+  <si>
+    <t>ebing2972</t>
+  </si>
+  <si>
+    <t>thortheenglishcreamm</t>
+  </si>
+  <si>
+    <t>yorkiesontheroad</t>
+  </si>
+  <si>
+    <t>cooperplaytime</t>
+  </si>
+  <si>
+    <t>onboutcash</t>
+  </si>
+  <si>
+    <t>lunatheweenie661</t>
+  </si>
+  <si>
+    <t>oreo.adventures.family</t>
+  </si>
+  <si>
+    <t>itspudy_buddy</t>
+  </si>
+  <si>
+    <t>squidgemont</t>
+  </si>
+  <si>
+    <t>larrythegp_and_friends</t>
+  </si>
+  <si>
+    <t>mapleee_gworlll</t>
+  </si>
+  <si>
+    <t>liloguzman23</t>
+  </si>
+  <si>
+    <t>corgikaitx</t>
+  </si>
+  <si>
+    <t>simba_schnuffi</t>
+  </si>
+  <si>
+    <t>drei_samtpfoten3</t>
+  </si>
+  <si>
+    <t>zeusandalfa</t>
+  </si>
+  <si>
+    <t>fotomani_strom_annika</t>
+  </si>
+  <si>
+    <t>kodathechow2024</t>
+  </si>
+  <si>
+    <t>connornbernie</t>
+  </si>
+  <si>
+    <t>cashthefriendlybully</t>
+  </si>
+  <si>
+    <t>turtlelatteva</t>
+  </si>
+  <si>
+    <t>toni.schaferhund</t>
+  </si>
+  <si>
+    <t>hele_9416</t>
+  </si>
+  <si>
+    <t>the_henson_bunch</t>
+  </si>
+  <si>
+    <t>a_beagle_named_chase</t>
+  </si>
+  <si>
+    <t>mrmeekodoodle</t>
+  </si>
+  <si>
+    <t>htxteddy</t>
+  </si>
+  <si>
+    <t>allthefurandfriends</t>
+  </si>
+  <si>
+    <t>lily_bellejan2021</t>
+  </si>
+  <si>
+    <t>luna.m.m_capricorn</t>
+  </si>
+  <si>
+    <t>mstajthepoddle</t>
+  </si>
+  <si>
+    <t>lady_pippa_the_magnificent</t>
+  </si>
+  <si>
+    <t>priyah_capri_roise</t>
+  </si>
+  <si>
+    <t>guinness_doing_frenchie_things</t>
+  </si>
+  <si>
+    <t>jumbowoofs</t>
+  </si>
+  <si>
+    <t>hoosier_bassethound</t>
+  </si>
+  <si>
+    <t>buster.the.cane.corso_</t>
+  </si>
+  <si>
+    <t>chiquitathedach</t>
+  </si>
+  <si>
+    <t>cookiethedoxie_24</t>
+  </si>
+  <si>
+    <t>maple_the_labpup</t>
+  </si>
+  <si>
+    <t>mary_michlovitch</t>
+  </si>
+  <si>
+    <t>harlowthegoldenboy_</t>
+  </si>
+  <si>
+    <t>nesstickles_</t>
+  </si>
+  <si>
+    <t>castagna2013</t>
+  </si>
+  <si>
+    <t>rue</t>
+  </si>
+  <si>
+    <t>tobythegolden6</t>
+  </si>
+  <si>
+    <t>lopezcasasbuenas</t>
+  </si>
+  <si>
+    <t>henrythelabradude</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bond_goldendoodle</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>bonnie_robens</t>
+  </si>
+  <si>
+    <t>tandgadventures</t>
+  </si>
+  <si>
+    <t>divinat0607</t>
+  </si>
+  <si>
+    <t>mbugglesworth</t>
+  </si>
+  <si>
+    <t>treyolberding</t>
+  </si>
+  <si>
+    <t>makeupbytalaina</t>
+  </si>
+  <si>
+    <t>tourtel_27</t>
+  </si>
+  <si>
+    <t>denji_dooter</t>
+  </si>
+  <si>
+    <t>paalaal</t>
+  </si>
+  <si>
+    <t>josephshanekusmierz</t>
+  </si>
+  <si>
+    <t>callumjmckinlay</t>
+  </si>
+  <si>
+    <t>pixelgroot</t>
+  </si>
+  <si>
+    <t>bianca_olmedo200</t>
+  </si>
+  <si>
+    <t>youngdumbarney</t>
+  </si>
+  <si>
+    <t>bradytheblacklabpup</t>
+  </si>
+  <si>
+    <t>blueydawgg</t>
+  </si>
+  <si>
+    <t>odinn_the_black_shephard</t>
+  </si>
+  <si>
+    <t>trixies.time</t>
+  </si>
+  <si>
+    <t>chillin_withbenny</t>
+  </si>
+  <si>
+    <t>sylphrena_lil_bit</t>
+  </si>
+  <si>
+    <t>littlekim94</t>
+  </si>
+  <si>
+    <t>barlowsgarden</t>
+  </si>
+  <si>
+    <t>queen_peanut23</t>
+  </si>
+  <si>
+    <t>littlemissbeverly_</t>
+  </si>
+  <si>
+    <t>sizuthebordercollie</t>
+  </si>
+  <si>
+    <t>snoopywoodstock2024</t>
+  </si>
+  <si>
+    <t>cocotteduturfu</t>
+  </si>
+  <si>
+    <t>adventures_wtih_alfie</t>
+  </si>
+  <si>
+    <t>heike_b_kish</t>
+  </si>
+  <si>
+    <t>mavsmajesticmoments</t>
+  </si>
+  <si>
+    <t>maltese.yorkshire.luna</t>
+  </si>
+  <si>
+    <t>labriverlife</t>
+  </si>
+  <si>
+    <t>maurice_meowington</t>
+  </si>
+  <si>
+    <t>thewookaweens</t>
+  </si>
+  <si>
+    <t>jacobrlawrence24</t>
+  </si>
+  <si>
+    <t>aleahrdun</t>
+  </si>
+  <si>
+    <t>leos.whinery</t>
+  </si>
+  <si>
+    <t>bambi_and_thistle</t>
+  </si>
+  <si>
+    <t>eddiepateddie</t>
+  </si>
+  <si>
+    <t>thebengalsimba2024</t>
+  </si>
+  <si>
+    <t>simuk_e</t>
+  </si>
+  <si>
+    <t>keeping_up_with_phoenix</t>
+  </si>
+  <si>
+    <t>phillyfosterlove</t>
   </si>
 </sst>
 </file>
@@ -4136,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E6B138-1AAD-412F-A0BD-E0C87A288C8C}">
-  <dimension ref="A1:B1406"/>
+  <dimension ref="A1:B1533"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1390" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1393" sqref="A1393:A1406"/>
+      <selection activeCell="E1397" sqref="E1397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11187,6 +11529,639 @@
         <v>1198</v>
       </c>
     </row>
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1407" s="17" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1408" s="17" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1409" s="17" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1410" s="17" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1411" s="17" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1412" s="17" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1413" s="17" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1414" s="17" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1415" s="17" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1416" s="17" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1417" s="17" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1418" s="17" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1419" s="17" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1420" s="17" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1421" s="17" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1422" s="17" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1423" s="17" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1424" s="17" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1425" s="17" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1426" s="17" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1427" s="17" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1428" s="17" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1429" s="17" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1430" s="17" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1431" s="17" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1432" s="17" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1433" s="17" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1434" s="17" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1435" s="17" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1436" s="17" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1437" s="17" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1438" s="17" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1439" s="17" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1440" s="17" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1441" s="17" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1442" s="17" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1443" s="17" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1444" s="17" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1445" s="17" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1446" s="17" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1447" s="17" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1448" s="17" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1449" s="17" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1450" s="17" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1451" s="17" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1452" s="17" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1453" s="17" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1454" s="17" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1455" s="17" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1456" s="17" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1457" s="17" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1458" s="17" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1459" s="17" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1460" s="17" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1461" s="17" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1462" s="17" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1463" s="17"/>
+    </row>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1464" s="15" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1465" s="15" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1466" s="15" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1467" s="15" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1468" s="15" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1469" s="15" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1470" s="15" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1471" s="15" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1472" s="15" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1473" s="15" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1474" s="15" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1475" s="15" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1476" s="15" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1477" s="15" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1478" s="15" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1479" s="15" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1480" s="15" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1481" s="15" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1482" s="15" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1483" s="15" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1484" s="15" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1485" s="15" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1486" s="15" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1487" s="15" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1488" s="15" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1489" s="15" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1490" s="15" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1491" s="15" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1492" s="15" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1493" s="15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1494" s="15" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1495" s="15" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1496" s="15" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1497" s="15" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1498" s="15" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1499" s="15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1500" s="15" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1501" s="15" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1502" s="15" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1503" s="15" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1504" s="15" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1505" s="15" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1506" s="15" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1507" s="15" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1508" s="15" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1509" s="15" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1510" s="15" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1511" s="15" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1512" s="15" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1513" s="15" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1514" s="15" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1515" s="15" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1516" s="15" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1517" s="15" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1518" s="15" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1519" s="15" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1520" s="15" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1521" s="15" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1522" s="15" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1523" s="15" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1524" s="15" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1525" s="15" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1526" s="15" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1527" s="15" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1528" s="15" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1529" s="15" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1530" s="15" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1531" s="15" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1532" s="15" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1533" s="15" t="s">
+        <v>1212</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
